--- a/Data/excel.xlsx
+++ b/Data/excel.xlsx
@@ -77,7 +77,7 @@
     <t>EURO</t>
   </si>
   <si>
-    <t>21:00</t>
+    <t>19:00</t>
   </si>
   <si>
     <t>20:00</t>
@@ -164,9 +164,6 @@
     <t>Enough flight</t>
   </si>
   <si>
-    <t>19:00</t>
-  </si>
-  <si>
     <t>23:00</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Nothing to say</t>
+  </si>
+  <si>
+    <t>21:00</t>
   </si>
   <si>
     <t>11:00</t>
@@ -1281,7 +1281,7 @@
         <v>44278</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>22</v>
@@ -1333,7 +1333,7 @@
         <v>44272</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>29</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="8">
         <v>67483</v>
@@ -1483,13 +1483,13 @@
         <v>44269</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="3">
         <v>44273</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>29</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="8">
         <v>52053</v>
@@ -1587,13 +1587,13 @@
         <v>44272</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="3">
         <v>44277</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>29</v>
@@ -1639,13 +1639,13 @@
         <v>44269</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="3">
         <v>44274</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>44</v>
@@ -1697,7 +1697,7 @@
         <v>44277</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>16</v>
@@ -1758,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M22" s="8">
         <f>B22-C22</f>
@@ -1901,7 +1901,7 @@
         <v>44268</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="3">
         <v>44271</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="8">
         <v>56979</v>
@@ -1953,7 +1953,7 @@
         <v>44273</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="3">
         <v>44278</v>
@@ -1985,7 +1985,7 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>44272</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="3">
         <v>44274</v>
@@ -2089,9 +2089,9 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="8">
         <v>50453</v>
@@ -2109,7 +2109,7 @@
         <v>44271</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H29" s="3">
         <v>44272</v>
@@ -2141,7 +2141,7 @@
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>44276</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>22</v>
@@ -2245,7 +2245,7 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>44269</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>44</v>
@@ -2297,7 +2297,7 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>44271</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>22</v>
@@ -2401,9 +2401,9 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="8">
         <v>65526</v>
@@ -2427,7 +2427,7 @@
         <v>44276</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>22</v>
@@ -2453,7 +2453,7 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="9" t="s">
         <v>25</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="9" t="s">
         <v>25</v>
       </c>
@@ -2525,13 +2525,13 @@
         <v>44274</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="3">
         <v>44277</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>16</v>
@@ -2557,7 +2557,7 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="9" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>44272</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>22</v>
@@ -2609,9 +2609,9 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8">
         <v>66711</v>
@@ -2661,7 +2661,7 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2689,7 +2689,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2717,7 +2717,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2745,7 +2745,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2773,7 +2773,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2801,7 +2801,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>

--- a/Data/excel.xlsx
+++ b/Data/excel.xlsx
@@ -44,7 +44,7 @@
     <t>Time To</t>
   </si>
   <si>
-    <t xml:space="preserve">From </t>
+    <t>From</t>
   </si>
   <si>
     <t>To</t>
@@ -155,19 +155,19 @@
     <t>MH006</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
     <t>Enough flight</t>
   </si>
   <si>
     <t>23:00</t>
   </si>
   <si>
+    <t>12:00</t>
+  </si>
+  <si>
     <t>MH004</t>
+  </si>
+  <si>
+    <t>16:00</t>
   </si>
   <si>
     <t>4:00</t>
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8">
-        <v>60411</v>
+        <v>100000</v>
       </c>
       <c r="C2" s="8">
         <v>35759</v>
@@ -736,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="8">
-        <v>65634</v>
+        <v>100000</v>
       </c>
       <c r="C3" s="8">
         <v>38419</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3">
-        <v>44270</v>
+        <v>44268</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>21</v>
@@ -790,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="8">
-        <v>64841</v>
+        <v>100000</v>
       </c>
       <c r="C4" s="8">
         <v>28906</v>
@@ -1114,16 +1114,16 @@
         <v>299</v>
       </c>
       <c r="F10" s="3">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>16</v>
@@ -1154,7 +1154,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8">
-        <v>58849</v>
+        <v>100000</v>
       </c>
       <c r="C11" s="8">
         <v>24007</v>
@@ -1166,16 +1166,16 @@
         <v>335</v>
       </c>
       <c r="F11" s="3">
-        <v>44271</v>
+        <v>44275</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="3">
-        <v>44273</v>
+        <v>44276</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>22</v>
@@ -1218,7 +1218,7 @@
         <v>487</v>
       </c>
       <c r="F12" s="3">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>21</v>
@@ -1236,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M12" s="8">
         <f>B12-C12</f>
@@ -1333,7 +1333,7 @@
         <v>44272</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>29</v>
@@ -1379,7 +1379,7 @@
         <v>44268</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3">
         <v>44273</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8">
         <v>67483</v>
@@ -1431,13 +1431,13 @@
         <v>44274</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H16" s="3">
         <v>44278</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>22</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="8">
         <v>52053</v>
@@ -1541,7 +1541,7 @@
         <v>44270</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>29</v>
@@ -1697,7 +1697,7 @@
         <v>44277</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>16</v>
@@ -1803,7 +1803,7 @@
         <v>44276</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>29</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="8">
         <v>56979</v>
@@ -2057,7 +2057,7 @@
         <v>44272</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H28" s="3">
         <v>44274</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="8">
         <v>50453</v>
@@ -2115,7 +2115,7 @@
         <v>44272</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         <v>44275</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>22</v>
@@ -2219,7 +2219,7 @@
         <v>44276</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>22</v>
@@ -2323,7 +2323,7 @@
         <v>44274</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>44</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="8">
         <v>65526</v>
@@ -2458,7 +2458,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="8">
-        <v>61701</v>
+        <v>100000</v>
       </c>
       <c r="C36" s="8">
         <v>20026</v>
@@ -2510,7 +2510,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="8">
-        <v>68828</v>
+        <v>100000</v>
       </c>
       <c r="C37" s="8">
         <v>41871</v>
@@ -2557,12 +2557,12 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="8">
-        <v>69976</v>
+        <v>100000</v>
       </c>
       <c r="C38" s="8">
         <v>36026</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="8">
-        <v>66711</v>
+        <v>100000</v>
       </c>
       <c r="C39" s="8">
         <v>38805</v>
@@ -2626,13 +2626,13 @@
         <v>380</v>
       </c>
       <c r="F39" s="3">
-        <v>44269</v>
+        <v>44275</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" s="3">
-        <v>44272</v>
+        <v>44277</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>28</v>

--- a/Data/excel.xlsx
+++ b/Data/excel.xlsx
@@ -1434,10 +1434,10 @@
         <v>50</v>
       </c>
       <c r="H16" s="3">
-        <v>44278</v>
+        <v>44274</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>22</v>

--- a/Data/excel.xlsx
+++ b/Data/excel.xlsx
@@ -745,7 +745,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="8">
-        <v>325</v>
+        <v>3000</v>
       </c>
       <c r="F3" s="3">
         <v>44268</v>
